--- a/temp/画面設計書/02/画面遷移図_2.xlsx
+++ b/temp/画面設計書/02/画面遷移図_2.xlsx
@@ -3,17 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27706"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686DE6C0-071E-4DB2-9241-52B48544D775}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="11_3F8216BDF2DCCE836B02CE998F0AE45F5E522874" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBBE694E-5CD2-424C-9580-C3933210F327}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2_ログインエラー画面" sheetId="1" r:id="rId1"/>
     <sheet name="エラー対応表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>画面設計書</t>
   </si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>更新者</t>
+  </si>
+  <si>
+    <t>井上　岬</t>
   </si>
   <si>
     <t>システム名</t>
@@ -579,55 +579,47 @@
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -636,11 +628,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1373,19 +1373,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="002_ログインエラー画面"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1707,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1721,354 +1708,358 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13.5" customHeight="1">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45430</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="13.5" customHeight="1">
-      <c r="B4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="41">
         <v>2</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="D4" s="42"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="C5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
+      <c r="C6" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="2:7" ht="13.5" customHeight="1">
-      <c r="B28" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="B28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="C28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="D28" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="E28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="28"/>
+      <c r="F28" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="27" t="s">
+      <c r="B29" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="C29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28" t="s">
+      <c r="D29" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="27" t="s">
+      <c r="B30" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="C30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28" t="s">
+      <c r="D30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="28"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
+      <c r="B33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="B34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="37"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2091,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F67378-B3F5-4B6D-B47C-DA2B4140CA86}">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2107,64 +2098,64 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18" customHeight="1">
-      <c r="B2" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B3" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="45" t="s">
+      <c r="B3" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B4" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="46" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
